--- a/models/ATT2ITM/pois/newyorkcity/37ed8371d07fb3ebc09c24d421039f8a/att_text.xlsx
+++ b/models/ATT2ITM/pois/newyorkcity/37ed8371d07fb3ebc09c24d421039f8a/att_text.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>text</t>
   </si>
@@ -244,7 +244,13 @@
     <t>The Vessel</t>
   </si>
   <si>
-    <t>no</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
 </sst>
 </file>
@@ -602,623 +608,1085 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.04769898951053619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.06235242635011673</v>
+      </c>
+      <c r="C3">
+        <v>0.1388918310403824</v>
+      </c>
+      <c r="D3">
+        <v>-0.7116753458976746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.05046502500772476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.04205216839909554</v>
+      </c>
+      <c r="C4">
+        <v>-0.5146498680114746</v>
+      </c>
+      <c r="D4">
+        <v>-0.1015836372971535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.09422624111175537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.07237102091312408</v>
+      </c>
+      <c r="C5">
+        <v>0.7274484634399414</v>
+      </c>
+      <c r="D5">
+        <v>-0.9231733083724976</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1986647546291351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.1527380347251892</v>
+      </c>
+      <c r="C6">
+        <v>-0.2505322694778442</v>
+      </c>
+      <c r="D6">
+        <v>0.4436142444610596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.00249189930036664</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.00450582429766655</v>
+      </c>
+      <c r="C7">
+        <v>0.1543688923120499</v>
+      </c>
+      <c r="D7">
+        <v>0.5538178682327271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03958327323198318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.02521095983684063</v>
+      </c>
+      <c r="C8">
+        <v>0.3615935742855072</v>
+      </c>
+      <c r="D8">
+        <v>0.3435992002487183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.1373989135026932</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.08293093740940094</v>
+      </c>
+      <c r="C9">
+        <v>-0.3605136573314667</v>
+      </c>
+      <c r="D9">
+        <v>-0.9150770902633667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.089987613260746</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.04274691268801689</v>
+      </c>
+      <c r="C10">
+        <v>-0.3739874958992004</v>
+      </c>
+      <c r="D10">
+        <v>-0.8478732705116272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.08015062659978867</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.02333997748792171</v>
+      </c>
+      <c r="C11">
+        <v>0.1184825375676155</v>
+      </c>
+      <c r="D11">
+        <v>-0.8666408658027649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.01975433714687824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.05411334708333015</v>
+      </c>
+      <c r="C12">
+        <v>-0.5409560799598694</v>
+      </c>
+      <c r="D12">
+        <v>-0.1400168985128403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.03424083441495895</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.003626839024946094</v>
+      </c>
+      <c r="C13">
+        <v>-0.668729305267334</v>
+      </c>
+      <c r="D13">
+        <v>-0.5856467485427856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.07870054990053177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.0280414093285799</v>
+      </c>
+      <c r="C14">
+        <v>-0.5862643122673035</v>
+      </c>
+      <c r="D14">
+        <v>-0.8785539865493774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.03078539110720158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.01697667501866817</v>
+      </c>
+      <c r="C15">
+        <v>-0.09644279628992081</v>
+      </c>
+      <c r="D15">
+        <v>-0.9582561850547791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.1178073137998581</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.06310787796974182</v>
+      </c>
+      <c r="C16">
+        <v>-0.9189925193786621</v>
+      </c>
+      <c r="D16">
+        <v>-0.4783094227313995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.03313642740249634</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>-0.09229721873998642</v>
+      </c>
+      <c r="C17">
+        <v>-0.8166438937187195</v>
+      </c>
+      <c r="D17">
+        <v>-0.7988914847373962</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.1362919211387634</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>-0.0220823772251606</v>
+      </c>
+      <c r="C18">
+        <v>-0.396637350320816</v>
+      </c>
+      <c r="D18">
+        <v>-0.5895981788635254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.01699515618383884</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>-0.05443601682782173</v>
+      </c>
+      <c r="C19">
+        <v>-0.7059115767478943</v>
+      </c>
+      <c r="D19">
+        <v>-0.8045869469642639</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.1076181977987289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.1700012236833572</v>
+      </c>
+      <c r="C20">
+        <v>-0.1289146691560745</v>
+      </c>
+      <c r="D20">
+        <v>-0.7613794803619385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.176769956946373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.07189710438251495</v>
+      </c>
+      <c r="C21">
+        <v>0.06548400223255157</v>
+      </c>
+      <c r="D21">
+        <v>-0.6730524897575378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.03127407282590866</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.02071905508637428</v>
+      </c>
+      <c r="C22">
+        <v>-0.72225022315979</v>
+      </c>
+      <c r="D22">
+        <v>0.1581237614154816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.02084274776279926</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.01147598307579756</v>
+      </c>
+      <c r="C23">
+        <v>-0.4059304893016815</v>
+      </c>
+      <c r="D23">
+        <v>-0.2577432096004486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.06336113810539246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.07425839453935623</v>
+      </c>
+      <c r="C24">
+        <v>0.03214558213949203</v>
+      </c>
+      <c r="D24">
+        <v>-0.3282952606678009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.01499798893928528</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.02046574093401432</v>
+      </c>
+      <c r="C25">
+        <v>0.8537524938583374</v>
+      </c>
+      <c r="D25">
+        <v>-0.5271893739700317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.1437440663576126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.01361279282718897</v>
+      </c>
+      <c r="C26">
+        <v>-0.9526810646057129</v>
+      </c>
+      <c r="D26">
+        <v>0.2329343110322952</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.09662628918886185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>0.03941845521330833</v>
+      </c>
+      <c r="C27">
+        <v>-0.7170928120613098</v>
+      </c>
+      <c r="D27">
+        <v>-0.3968803584575653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.005813520401716232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.04031810909509659</v>
+      </c>
+      <c r="C28">
+        <v>-0.07387165725231171</v>
+      </c>
+      <c r="D28">
+        <v>-0.8559514284133911</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-0.04541951417922974</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.04565873742103577</v>
+      </c>
+      <c r="C29">
+        <v>-0.1324161887168884</v>
+      </c>
+      <c r="D29">
+        <v>-0.7506532073020935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.04823159798979759</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.01874707080423832</v>
+      </c>
+      <c r="C30">
+        <v>-0.1478636115789413</v>
+      </c>
+      <c r="D30">
+        <v>-0.8817517161369324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.02765566855669022</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.08637962490320206</v>
+      </c>
+      <c r="C31">
+        <v>-0.3688295185565948</v>
+      </c>
+      <c r="D31">
+        <v>-0.6198210120201111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.2214159071445465</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.07181552052497864</v>
+      </c>
+      <c r="C32">
+        <v>-0.8557407259941101</v>
+      </c>
+      <c r="D32">
+        <v>-0.06597816199064255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-0.0957024022936821</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.05688686296343803</v>
+      </c>
+      <c r="C33">
+        <v>-0.6660718321800232</v>
+      </c>
+      <c r="D33">
+        <v>0.06180957704782486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.2516422271728516</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.02844835259020329</v>
+      </c>
+      <c r="C34">
+        <v>-0.295377254486084</v>
+      </c>
+      <c r="D34">
+        <v>-0.577764630317688</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.2794243991374969</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.08840207755565643</v>
+      </c>
+      <c r="C35">
+        <v>-0.8929609656333923</v>
+      </c>
+      <c r="D35">
+        <v>-0.88490229845047</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-0.01143453642725945</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.01864231936633587</v>
+      </c>
+      <c r="C36">
+        <v>0.08820873498916626</v>
+      </c>
+      <c r="D36">
+        <v>-0.6338797211647034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.008760997094213963</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>0.09027277678251266</v>
+      </c>
+      <c r="C37">
+        <v>-0.2060793042182922</v>
+      </c>
+      <c r="D37">
+        <v>-0.2281061112880707</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.07673463970422745</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.05297998338937759</v>
+      </c>
+      <c r="C38">
+        <v>-0.9148758053779602</v>
+      </c>
+      <c r="D38">
+        <v>-0.2858545482158661</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.02329428307712078</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.02405424229800701</v>
+      </c>
+      <c r="C39">
+        <v>-0.8395429253578186</v>
+      </c>
+      <c r="D39">
+        <v>-0.8650468587875366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.2429181486368179</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.0899704173207283</v>
+      </c>
+      <c r="C40">
+        <v>-0.605363130569458</v>
+      </c>
+      <c r="D40">
+        <v>0.02373291179537773</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.1777698546648026</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.01807951740920544</v>
+      </c>
+      <c r="C41">
+        <v>-0.8609529733657837</v>
+      </c>
+      <c r="D41">
+        <v>-0.2258090823888779</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.03219448775053024</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>0.02396020852029324</v>
+      </c>
+      <c r="C42">
+        <v>-0.1086066141724586</v>
+      </c>
+      <c r="D42">
+        <v>-0.5478006601333618</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.04434786736965179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.1476344466209412</v>
+      </c>
+      <c r="C43">
+        <v>-0.7077990174293518</v>
+      </c>
+      <c r="D43">
+        <v>-0.5857157707214355</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.150984987616539</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.0637749582529068</v>
+      </c>
+      <c r="C44">
+        <v>-0.533600389957428</v>
+      </c>
+      <c r="D44">
+        <v>-0.9037269353866577</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.08377192914485931</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>0.09260579198598862</v>
+      </c>
+      <c r="C45">
+        <v>-0.9341098070144653</v>
+      </c>
+      <c r="D45">
+        <v>-0.786834180355072</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.01304392050951719</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.007677769288420677</v>
+      </c>
+      <c r="C46">
+        <v>-0.3407018184661865</v>
+      </c>
+      <c r="D46">
+        <v>0.4265744984149933</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.04633019864559174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.01749725639820099</v>
+      </c>
+      <c r="C47">
+        <v>0.2386655658483505</v>
+      </c>
+      <c r="D47">
+        <v>-0.7043001651763916</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.04060168191790581</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.02593583054840565</v>
+      </c>
+      <c r="C48">
+        <v>0.9553757309913635</v>
+      </c>
+      <c r="D48">
+        <v>-0.4687628149986267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.09380277246236801</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.001632681465707719</v>
+      </c>
+      <c r="C49">
+        <v>-0.3480309844017029</v>
+      </c>
+      <c r="D49">
+        <v>-0.498906284570694</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.09948412328958511</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.01918843761086464</v>
+      </c>
+      <c r="C50">
+        <v>0.03977799043059349</v>
+      </c>
+      <c r="D50">
+        <v>-0.0899948850274086</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.08767375349998474</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.005771757569164038</v>
+      </c>
+      <c r="C51">
+        <v>0.6507136225700378</v>
+      </c>
+      <c r="D51">
+        <v>-0.8762215971946716</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.003181447042152286</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>0.09287262707948685</v>
+      </c>
+      <c r="C52">
+        <v>-0.8111395239830017</v>
+      </c>
+      <c r="D52">
+        <v>-0.5662176012992859</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.1033065021038055</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.04564983025193214</v>
+      </c>
+      <c r="C53">
+        <v>-0.9310958981513977</v>
+      </c>
+      <c r="D53">
+        <v>-0.4378783404827118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.02024426497519016</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.03937868773937225</v>
+      </c>
+      <c r="C54">
+        <v>-0.9434617757797241</v>
+      </c>
+      <c r="D54">
+        <v>-0.3330782055854797</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.02006458677351475</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01126081775873899</v>
+      </c>
+      <c r="C55">
+        <v>-0.4851451814174652</v>
+      </c>
+      <c r="D55">
+        <v>-0.9791592359542847</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-0.2456273287534714</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02439961023628712</v>
+      </c>
+      <c r="C56">
+        <v>0.4645839929580688</v>
+      </c>
+      <c r="D56">
+        <v>-0.9072306752204895</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.05998153239488602</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>-0.03018172644078732</v>
+      </c>
+      <c r="C57">
+        <v>-0.770136833190918</v>
+      </c>
+      <c r="D57">
+        <v>-0.3075501918792725</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.1133311837911606</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.09585926681756973</v>
+      </c>
+      <c r="C58">
+        <v>-0.974300742149353</v>
+      </c>
+      <c r="D58">
+        <v>-0.5122367143630981</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.1236930415034294</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.03815509751439095</v>
+      </c>
+      <c r="C59">
+        <v>-0.8912698030471802</v>
+      </c>
+      <c r="D59">
+        <v>-0.6093151569366455</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.06473769992589951</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.05029748007655144</v>
+      </c>
+      <c r="C60">
+        <v>-0.5679837465286255</v>
+      </c>
+      <c r="D60">
+        <v>0.07786185294389725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.2496226727962494</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.03382233530282974</v>
+      </c>
+      <c r="C61">
+        <v>-0.5722813010215759</v>
+      </c>
+      <c r="D61">
+        <v>-0.3769271373748779</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.1236035898327827</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.01291339844465256</v>
+      </c>
+      <c r="C62">
+        <v>-0.3166471719741821</v>
+      </c>
+      <c r="D62">
+        <v>-0.9137076735496521</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.0112149165943265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.01099595427513123</v>
+      </c>
+      <c r="C63">
+        <v>-0.09416083991527557</v>
+      </c>
+      <c r="D63">
+        <v>-0.9756218194961548</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.07503696531057358</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.0215457733720541</v>
+      </c>
+      <c r="C64">
+        <v>0.2586396932601929</v>
+      </c>
+      <c r="D64">
+        <v>-0.988310694694519</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.1061825454235077</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01515358686447144</v>
+      </c>
+      <c r="C65">
+        <v>-0.4431260228157043</v>
+      </c>
+      <c r="D65">
+        <v>-0.9734682440757751</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.04118836671113968</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.2045170068740845</v>
+      </c>
+      <c r="C66">
+        <v>-0.8780088424682617</v>
+      </c>
+      <c r="D66">
+        <v>-0.9526180028915405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.05089541524648666</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01756186597049236</v>
+      </c>
+      <c r="C67">
+        <v>-0.4322329461574554</v>
+      </c>
+      <c r="D67">
+        <v>-0.6885086297988892</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.05438109859824181</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0436830185353756</v>
+      </c>
+      <c r="C68">
+        <v>-0.9519302248954773</v>
+      </c>
+      <c r="D68">
+        <v>-0.1412812769412994</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.2198307067155838</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.01100078504532576</v>
+      </c>
+      <c r="C69">
+        <v>-0.8966230154037476</v>
+      </c>
+      <c r="D69">
+        <v>-0.03322770819067955</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.06212301924824715</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.0180510301142931</v>
+      </c>
+      <c r="C70">
+        <v>-0.8607936501502991</v>
+      </c>
+      <c r="D70">
+        <v>-0.322252482175827</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.0235059168189764</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.09309428185224533</v>
+      </c>
+      <c r="C71">
+        <v>-0.9064618945121765</v>
+      </c>
+      <c r="D71">
+        <v>-0.7140676975250244</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.116631306707859</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.04740220680832863</v>
+      </c>
+      <c r="C72">
+        <v>-0.6292073726654053</v>
+      </c>
+      <c r="D72">
+        <v>-0.8728411197662354</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.1089770495891571</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.01184147037565708</v>
+      </c>
+      <c r="C73">
+        <v>-0.9733816385269165</v>
+      </c>
+      <c r="D73">
+        <v>-0.5561177134513855</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.07832453399896622</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.03085952810943127</v>
+      </c>
+      <c r="C74">
+        <v>-0.3925987780094147</v>
+      </c>
+      <c r="D74">
+        <v>-0.9200584292411804</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.05597721785306931</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.05048288777470589</v>
+      </c>
+      <c r="C75">
+        <v>-0.9409394264221191</v>
+      </c>
+      <c r="D75">
+        <v>-0.6153134703636169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.09825918823480606</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.09419156610965729</v>
+      </c>
+      <c r="C76">
+        <v>-0.7609816789627075</v>
+      </c>
+      <c r="D76">
+        <v>-0.3348521292209625</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.04401431232690811</v>
+        <v>-0.01126787438988686</v>
+      </c>
+      <c r="C77">
+        <v>-0.8522487878799438</v>
+      </c>
+      <c r="D77">
+        <v>-0.5401177406311035</v>
       </c>
     </row>
   </sheetData>
